--- a/BaseCSS.xlsx
+++ b/BaseCSS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davea\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davea\Desktop\YE\PORTFOLIO\BaseCss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C54835E6-F2C2-470C-8134-CAEA54B16A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5E52ED-7768-4084-8ED1-C2BBF265A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59B936B3-AB1B-434D-896F-DAAD078FEE9D}"/>
   </bookViews>
@@ -117,10 +117,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,8 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +473,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,12 +510,12 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -599,5 +607,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BaseCSS.xlsx
+++ b/BaseCSS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davea\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davea\Desktop\YE\PORTFOLIO\BaseCss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C54835E6-F2C2-470C-8134-CAEA54B16A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66A0DCC-6595-4C5B-95C9-36262D0A2D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59B936B3-AB1B-434D-896F-DAAD078FEE9D}"/>
   </bookViews>
@@ -117,10 +117,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,8 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +473,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +535,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -599,5 +607,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>